--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362950.7404272975</v>
+        <v>359178.5390936642</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33157021.71754205</v>
+        <v>33157021.71754204</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6010015.580922043</v>
+        <v>6010015.580922046</v>
       </c>
     </row>
     <row r="9">
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.39025468426205</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="X3" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.18661160258022</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>36.39025468426205</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>36.39025468426205</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>36.39025468426205</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>16.0477175548881</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>16.04771755488796</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.3425371293741</v>
+        <v>20.34253712937399</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>244.9043102020997</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>184.3243145414</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>85.1488807209173</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>51.27008826798737</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>189.6554371447624</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>382.2386553422716</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>55.88313987881816</v>
+        <v>74.42811009354851</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.972383748994</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>393.1087550102249</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2007,10 +2007,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2022,7 +2022,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>28.38292210535108</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>121.3841900088932</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>139.4214382638849</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>68.60881649987024</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2247,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2292,19 +2292,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>7.722803593220153</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>98.85709760052107</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>160.6710988256857</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2374,7 +2374,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>171.4188751488247</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>389.5883698762427</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>25.99306316374863</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -2614,13 +2614,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811437</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556276</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2809,7 +2809,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>101.5140015419188</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>71.9966468323953</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>349.0949631042827</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>156.0909062391302</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>12.46281086255083</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>74.97121041652106</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H36" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>124.9554984777213</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>174.1520217478735</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>187.4450760336508</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>85.14888072091732</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>167.2666926400699</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3742,13 +3742,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>137.6351379060677</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>40.06170608735101</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>206.4526661771975</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>156.9132088647746</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>143.4833800044712</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>333.3838141281609</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>43.16273478405333</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4194,7 +4194,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4309,64 +4309,64 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549119</v>
       </c>
       <c r="E2" t="n">
-        <v>27.1322257941904</v>
+        <v>27.13222579419042</v>
       </c>
       <c r="F2" t="n">
-        <v>3.30520024380219</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G2" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H2" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I2" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>3.305200243802187</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>3.305200243802187</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L2" t="n">
-        <v>3.305200243802187</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M2" t="n">
-        <v>3.305200243802187</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="N2" t="n">
-        <v>3.305200243802187</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O2" t="n">
-        <v>44.20705326085425</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P2" t="n">
-        <v>85.1089062779063</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q2" t="n">
-        <v>126.0107592949583</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="R2" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S2" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T2" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U2" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V2" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
         <v>164.4449616415467</v>
@@ -4375,7 +4375,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C3" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D3" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E3" t="n">
-        <v>86.76985286506954</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F3" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G3" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H3" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
         <v>29.36887340425979</v>
@@ -4412,49 +4412,49 @@
         <v>29.36887340425979</v>
       </c>
       <c r="K3" t="n">
-        <v>70.27072642131183</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L3" t="n">
-        <v>70.27072642131183</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M3" t="n">
-        <v>70.27072642131183</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N3" t="n">
-        <v>70.27072642131183</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O3" t="n">
-        <v>70.27072642131183</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P3" t="n">
-        <v>83.45630615600521</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q3" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="R3" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T3" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U3" t="n">
-        <v>165.2600121901093</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="V3" t="n">
-        <v>165.2600121901093</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="W3" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X3" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y3" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.1098645848475</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C4" t="n">
-        <v>102.1098645848475</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D4" t="n">
-        <v>102.1098645848475</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E4" t="n">
-        <v>102.1098645848475</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F4" t="n">
-        <v>102.1098645848475</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G4" t="n">
-        <v>86.76985286506954</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H4" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I4" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802187</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L4" t="n">
-        <v>42.55445313895315</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M4" t="n">
-        <v>83.45630615600521</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N4" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="O4" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="P4" t="n">
         <v>124.3581591730573</v>
       </c>
-      <c r="O4" t="n">
-        <v>165.2600121901093</v>
-      </c>
-      <c r="P4" t="n">
-        <v>165.2600121901093</v>
-      </c>
       <c r="Q4" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>143.8421908954812</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>102.1098645848475</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>102.1098645848475</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U4" t="n">
-        <v>102.1098645848475</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V4" t="n">
-        <v>102.1098645848475</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W4" t="n">
-        <v>102.1098645848475</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X4" t="n">
-        <v>102.1098645848475</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.1098645848475</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085425</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K5" t="n">
-        <v>85.1089062779063</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L5" t="n">
-        <v>124.3581591730573</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M5" t="n">
-        <v>124.3581591730573</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N5" t="n">
-        <v>124.3581591730573</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O5" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P5" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q5" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C6" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D6" t="n">
-        <v>165.2600121901093</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E6" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
-        <v>86.76985286506954</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
         <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K6" t="n">
-        <v>29.36887340425979</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L6" t="n">
-        <v>29.36887340425979</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M6" t="n">
-        <v>29.36887340425979</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N6" t="n">
-        <v>29.36887340425979</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O6" t="n">
-        <v>42.55445313895315</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P6" t="n">
-        <v>83.45630615600521</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C7" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D7" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E7" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F7" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G7" t="n">
-        <v>81.79535956884197</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H7" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>44.20705326085425</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K7" t="n">
-        <v>85.1089062779063</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L7" t="n">
-        <v>126.0107592949583</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M7" t="n">
-        <v>165.2600121901093</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N7" t="n">
-        <v>165.2600121901093</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O7" t="n">
-        <v>165.2600121901093</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P7" t="n">
-        <v>165.2600121901093</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901093</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901093</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901093</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
-        <v>165.2600121901093</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V7" t="n">
-        <v>165.2600121901093</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W7" t="n">
-        <v>165.2600121901093</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X7" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="8">
@@ -4783,64 +4783,64 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064257</v>
+        <v>88.73594738064259</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549115</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E8" t="n">
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802179</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
-        <v>4.526214736576765</v>
+        <v>4.526214736576962</v>
       </c>
       <c r="J8" t="n">
-        <v>15.46524032242556</v>
+        <v>45.42806775362904</v>
       </c>
       <c r="K8" t="n">
-        <v>56.36709333947761</v>
+        <v>50.80462573992303</v>
       </c>
       <c r="L8" t="n">
-        <v>63.03718894925316</v>
+        <v>57.47472134969938</v>
       </c>
       <c r="M8" t="n">
-        <v>103.9390419663052</v>
+        <v>64.89648790540897</v>
       </c>
       <c r="N8" t="n">
-        <v>144.8408949833573</v>
+        <v>72.43834640320799</v>
       </c>
       <c r="O8" t="n">
-        <v>151.9624581008997</v>
+        <v>79.55990952075123</v>
       </c>
       <c r="P8" t="n">
-        <v>158.0405474585363</v>
+        <v>85.63799887838854</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.6049394378792</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
         <v>164.4449616415467</v>
@@ -4849,7 +4849,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>86.76985286506954</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>30.14750370473117</v>
+        <v>30.14750370473126</v>
       </c>
       <c r="J9" t="n">
-        <v>71.04935672178323</v>
+        <v>71.04935672178333</v>
       </c>
       <c r="K9" t="n">
-        <v>74.70118242528066</v>
+        <v>95.24998288423431</v>
       </c>
       <c r="L9" t="n">
-        <v>79.61151274691581</v>
+        <v>100.16031320587</v>
       </c>
       <c r="M9" t="n">
-        <v>85.34163662694533</v>
+        <v>105.8904370859002</v>
       </c>
       <c r="N9" t="n">
-        <v>91.22341983556349</v>
+        <v>111.7722202945191</v>
       </c>
       <c r="O9" t="n">
-        <v>117.1529028307844</v>
+        <v>117.1529028307836</v>
       </c>
       <c r="P9" t="n">
-        <v>121.471374935488</v>
+        <v>121.4713749354877</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901093</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901093</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.9796685770776</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
-        <v>102.9796685770776</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>102.9796685770776</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>102.9796685770776</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>61.2473422664439</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>19.51501595581023</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>19.51501595581023</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>4.645647631830149</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>6.848414459526865</v>
+        <v>46.40982008855124</v>
       </c>
       <c r="L10" t="n">
-        <v>38.67375711973627</v>
+        <v>49.22860324192812</v>
       </c>
       <c r="M10" t="n">
-        <v>79.57561013678833</v>
+        <v>52.20061485460253</v>
       </c>
       <c r="N10" t="n">
-        <v>120.4774631538404</v>
+        <v>55.10195867390014</v>
       </c>
       <c r="O10" t="n">
-        <v>161.3793161708925</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
-        <v>163.6723998857342</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>144.7119948877113</v>
+        <v>144.7119948877114</v>
       </c>
       <c r="S10" t="n">
-        <v>144.7119948877113</v>
+        <v>144.7119948877114</v>
       </c>
       <c r="T10" t="n">
-        <v>102.9796685770776</v>
+        <v>144.7119948877114</v>
       </c>
       <c r="U10" t="n">
-        <v>102.9796685770776</v>
+        <v>144.7119948877114</v>
       </c>
       <c r="V10" t="n">
-        <v>102.9796685770776</v>
+        <v>144.7119948877114</v>
       </c>
       <c r="W10" t="n">
-        <v>102.9796685770776</v>
+        <v>144.7119948877114</v>
       </c>
       <c r="X10" t="n">
-        <v>102.9796685770776</v>
+        <v>144.7119948877114</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.9796685770776</v>
+        <v>144.7119948877114</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>294.5846426621868</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C11" t="n">
-        <v>294.5846426621868</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895473</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895473</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
         <v>805.440802286702</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V11" t="n">
-        <v>1526.868684372189</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W11" t="n">
-        <v>1122.013229783223</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="X11" t="n">
-        <v>702.8707663625333</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y11" t="n">
-        <v>294.5846426621868</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="12">
@@ -5111,22 +5111,22 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
         <v>803.3877032987879</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.6552262893761</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="C13" t="n">
-        <v>299.0935147726011</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2155219741237</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895473</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>997.5438780199984</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180194</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1685.067474329294</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675981</v>
@@ -5223,7 +5223,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
         <v>2215.901038951971</v>
@@ -5238,13 +5238,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1356.523706827089</v>
       </c>
       <c r="X13" t="n">
-        <v>890.893515694255</v>
+        <v>1111.131952160501</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083632</v>
+        <v>883.7122814746097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1536.32965943808</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.758510807007</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D14" t="n">
         <v>908.8487259814518</v>
@@ -5266,31 +5266,31 @@
         <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
         <v>1775.969506973259</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.32965943808</v>
+        <v>1317.134849681798</v>
       </c>
       <c r="Y14" t="n">
-        <v>1536.32965943808</v>
+        <v>908.8487259814518</v>
       </c>
     </row>
     <row r="15">
@@ -5351,16 +5351,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
@@ -5424,34 +5424,34 @@
         <v>299.0935147726011</v>
       </c>
       <c r="F16" t="n">
-        <v>299.0935147726011</v>
+        <v>122.3864607343573</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>358.0754347909401</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092379</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P16" t="n">
         <v>2274.089213540313</v>
@@ -5460,7 +5460,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
         <v>2215.901038951971</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>884.8517156860543</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="C17" t="n">
-        <v>446.7092428694776</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D17" t="n">
-        <v>446.7092428694776</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
         <v>276.0532770435805</v>
@@ -5521,7 +5521,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792596</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>1751.47677540147</v>
       </c>
       <c r="Y17" t="n">
-        <v>1173.712709371907</v>
+        <v>1343.190651701123</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>888.10816919885</v>
+        <v>863.3185618614019</v>
       </c>
       <c r="C19" t="n">
-        <v>715.5464576820749</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6684648835976</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6684648835976</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F19" t="n">
-        <v>372.9614108453538</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>208.2202304578722</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>75.87616983718814</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>413.3628026016838</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M19" t="n">
-        <v>997.5438780199985</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1567.301592981533</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>2104.736723555076</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540313</v>
@@ -5697,28 +5697,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W19" t="n">
-        <v>1552.738213270316</v>
+        <v>1527.948605932868</v>
       </c>
       <c r="X19" t="n">
-        <v>1307.346458603729</v>
+        <v>1282.556851266281</v>
       </c>
       <c r="Y19" t="n">
-        <v>1079.926787917837</v>
+        <v>1055.137180580389</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1495.863289652877</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="C20" t="n">
-        <v>1057.720816836301</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D20" t="n">
-        <v>621.8110320107453</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E20" t="n">
-        <v>188.0362871690405</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F20" t="n">
-        <v>188.0362871690405</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U20" t="n">
-        <v>2319.861207662534</v>
+        <v>2079.254491068495</v>
       </c>
       <c r="V20" t="n">
-        <v>2319.861207662534</v>
+        <v>1716.637541002321</v>
       </c>
       <c r="W20" t="n">
-        <v>1915.005753073567</v>
+        <v>1716.637541002321</v>
       </c>
       <c r="X20" t="n">
-        <v>1495.863289652877</v>
+        <v>1716.637541002321</v>
       </c>
       <c r="Y20" t="n">
-        <v>1495.863289652877</v>
+        <v>1308.351417301975</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5825,16 +5825,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5846,7 +5846,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.196554659879</v>
+        <v>859.4385509106165</v>
       </c>
       <c r="C22" t="n">
-        <v>856.6348431431041</v>
+        <v>686.8768393938415</v>
       </c>
       <c r="D22" t="n">
-        <v>690.7568503446269</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E22" t="n">
         <v>520.9988465953642</v>
@@ -5904,25 +5904,25 @@
         <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>588.0160255186814</v>
+        <v>554.108591664677</v>
       </c>
       <c r="M22" t="n">
-        <v>718.6204178572108</v>
+        <v>1138.289667082992</v>
       </c>
       <c r="N22" t="n">
-        <v>1288.378132818745</v>
+        <v>1708.047382044526</v>
       </c>
       <c r="O22" t="n">
         <v>1825.813263392288</v>
@@ -5934,28 +5934,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U22" t="n">
-        <v>1965.853003145054</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V22" t="n">
-        <v>1965.853003145054</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W22" t="n">
-        <v>1693.826598731346</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X22" t="n">
-        <v>1448.434844064758</v>
+        <v>1278.676840315495</v>
       </c>
       <c r="Y22" t="n">
-        <v>1221.015173378866</v>
+        <v>1051.257169629604</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>2781.858994217109</v>
       </c>
       <c r="U23" t="n">
-        <v>2781.858994217109</v>
+        <v>2608.708615278902</v>
       </c>
       <c r="V23" t="n">
-        <v>2781.858994217109</v>
+        <v>2608.708615278902</v>
       </c>
       <c r="W23" t="n">
-        <v>2377.003539628143</v>
+        <v>2203.853160689936</v>
       </c>
       <c r="X23" t="n">
-        <v>1957.861076207454</v>
+        <v>2203.853160689936</v>
       </c>
       <c r="Y23" t="n">
-        <v>1957.861076207454</v>
+        <v>1795.567036989589</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643598</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K24" t="n">
         <v>348.4613524870733</v>
@@ -6126,46 +6126,46 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C25" t="n">
-        <v>932.3961830728609</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D25" t="n">
-        <v>766.5181902743836</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E25" t="n">
-        <v>596.7601865251208</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868771</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G25" t="n">
-        <v>255.3119520993955</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H25" t="n">
-        <v>122.9678914787114</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I25" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="J25" t="n">
-        <v>118.7782686171431</v>
+        <v>118.778268617143</v>
       </c>
       <c r="K25" t="n">
-        <v>219.7541432517691</v>
+        <v>219.75414325177</v>
       </c>
       <c r="L25" t="n">
-        <v>761.8348266380279</v>
+        <v>761.8348266380289</v>
       </c>
       <c r="M25" t="n">
-        <v>1351.92308615747</v>
+        <v>1351.923086157471</v>
       </c>
       <c r="N25" t="n">
-        <v>1921.680801119005</v>
+        <v>1921.680801119006</v>
       </c>
       <c r="O25" t="n">
-        <v>2459.115931692548</v>
+        <v>2459.115931692549</v>
       </c>
       <c r="P25" t="n">
-        <v>2907.391881840573</v>
+        <v>2907.391881840574</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
@@ -6174,25 +6174,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S25" t="n">
-        <v>2849.203707252231</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T25" t="n">
         <v>2606.956483155638</v>
       </c>
       <c r="U25" t="n">
-        <v>2328.56985120438</v>
+        <v>2328.569851204381</v>
       </c>
       <c r="V25" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W25" t="n">
-        <v>1769.587938661102</v>
+        <v>1769.587938661103</v>
       </c>
       <c r="X25" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y25" t="n">
-        <v>1296.776513308623</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1755.315898083483</v>
+        <v>2063.179469532731</v>
       </c>
       <c r="C26" t="n">
-        <v>1317.173425266906</v>
+        <v>1625.036996716155</v>
       </c>
       <c r="D26" t="n">
-        <v>881.2636404413508</v>
+        <v>1189.127211890599</v>
       </c>
       <c r="E26" t="n">
-        <v>487.7400345057522</v>
+        <v>755.3524670488941</v>
       </c>
       <c r="F26" t="n">
-        <v>59.87260491495994</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G26" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H26" t="n">
         <v>59.87260491495994</v>
@@ -6226,10 +6226,10 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>723.9740178625035</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>960.2456682417244</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L26" t="n">
         <v>1253.361543105625</v>
@@ -6244,7 +6244,7 @@
         <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
         <v>2707.7995967108</v>
@@ -6253,25 +6253,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2781.858994217109</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U26" t="n">
-        <v>2522.788302738623</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V26" t="n">
-        <v>2160.17135267245</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="W26" t="n">
-        <v>1755.315898083483</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="X26" t="n">
-        <v>1755.315898083483</v>
+        <v>2063.179469532731</v>
       </c>
       <c r="Y26" t="n">
-        <v>1755.315898083483</v>
+        <v>2063.179469532731</v>
       </c>
     </row>
     <row r="27">
@@ -6369,28 +6369,28 @@
         <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993959</v>
       </c>
       <c r="H28" t="n">
-        <v>122.9678914787119</v>
+        <v>122.9678914787118</v>
       </c>
       <c r="I28" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>118.778268617143</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K28" t="n">
-        <v>219.7541432517701</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L28" t="n">
-        <v>761.834826638029</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M28" t="n">
         <v>1351.923086157471</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2464.791279766202</v>
+        <v>2195.069728310112</v>
       </c>
       <c r="C29" t="n">
-        <v>2026.648806949625</v>
+        <v>1756.927255493536</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.739022124069</v>
+        <v>1321.01747066798</v>
       </c>
       <c r="E29" t="n">
-        <v>1156.964277282364</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="F29" t="n">
-        <v>729.0968476915723</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G29" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495994</v>
@@ -6463,25 +6463,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>723.9740178625037</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K29" t="n">
-        <v>960.2456682417246</v>
+        <v>524.9909807888066</v>
       </c>
       <c r="L29" t="n">
-        <v>1253.361543105625</v>
+        <v>818.1068556527073</v>
       </c>
       <c r="M29" t="n">
-        <v>1579.509431274412</v>
+        <v>1559.030341475336</v>
       </c>
       <c r="N29" t="n">
-        <v>1910.93473325089</v>
+        <v>2096.316660732227</v>
       </c>
       <c r="O29" t="n">
-        <v>2223.890247792182</v>
+        <v>2409.27217527352</v>
       </c>
       <c r="P29" t="n">
-        <v>2490.990538971451</v>
+        <v>2676.372466452789</v>
       </c>
       <c r="Q29" t="n">
         <v>2876.953661463856</v>
@@ -6490,25 +6490,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U29" t="n">
-        <v>2891.090850251109</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="V29" t="n">
-        <v>2891.090850251109</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="W29" t="n">
-        <v>2891.090850251109</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="X29" t="n">
-        <v>2891.090850251109</v>
+        <v>2621.36929879502</v>
       </c>
       <c r="Y29" t="n">
-        <v>2891.090850251109</v>
+        <v>2621.36929879502</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870736</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M30" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6600,7 +6600,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2148.1882118424</v>
+        <v>1333.427553877615</v>
       </c>
       <c r="C32" t="n">
-        <v>1710.045739025823</v>
+        <v>895.2850810610382</v>
       </c>
       <c r="D32" t="n">
-        <v>1274.135954200268</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="E32" t="n">
-        <v>840.361209358563</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="F32" t="n">
-        <v>412.4937797677707</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G32" t="n">
         <v>59.87260491495994</v>
@@ -6700,52 +6700,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>524.9909807888066</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L32" t="n">
-        <v>818.1068556527073</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M32" t="n">
-        <v>1355.393174909598</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N32" t="n">
-        <v>2096.316660732227</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O32" t="n">
-        <v>2409.27217527352</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P32" t="n">
-        <v>2676.372466452789</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U32" t="n">
-        <v>2993.630245747997</v>
+        <v>2583.725042372179</v>
       </c>
       <c r="V32" t="n">
-        <v>2993.630245747997</v>
+        <v>2583.725042372179</v>
       </c>
       <c r="W32" t="n">
-        <v>2993.630245747997</v>
+        <v>2178.869587783212</v>
       </c>
       <c r="X32" t="n">
-        <v>2574.487782327308</v>
+        <v>1759.727124362523</v>
       </c>
       <c r="Y32" t="n">
-        <v>2574.487782327308</v>
+        <v>1759.727124362523</v>
       </c>
     </row>
     <row r="33">
@@ -6837,7 +6837,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
@@ -6846,7 +6846,7 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F34" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G34" t="n">
         <v>255.311952099396</v>
@@ -6861,10 +6861,10 @@
         <v>118.778268617143</v>
       </c>
       <c r="K34" t="n">
-        <v>219.7541432517701</v>
+        <v>219.75414325177</v>
       </c>
       <c r="L34" t="n">
-        <v>761.834826638029</v>
+        <v>761.8348266380289</v>
       </c>
       <c r="M34" t="n">
         <v>1351.923086157471</v>
@@ -6885,7 +6885,7 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S34" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T34" t="n">
         <v>2606.956483155638</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>765.4265856715602</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C35" t="n">
-        <v>752.8378878305998</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D35" t="n">
-        <v>316.9281030050443</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>316.9281030050443</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.710627381563</v>
+        <v>1773.290769282936</v>
       </c>
       <c r="W35" t="n">
-        <v>1592.855172792596</v>
+        <v>1773.290769282936</v>
       </c>
       <c r="X35" t="n">
-        <v>1173.712709371907</v>
+        <v>1773.290769282936</v>
       </c>
       <c r="Y35" t="n">
-        <v>765.4265856715602</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P36" t="n">
         <v>1488.088567599445</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C37" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364613</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E37" t="n">
         <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092384</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1668.767762136888</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1530.944687111452</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C38" t="n">
-        <v>1092.802214294875</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D38" t="n">
-        <v>656.8924294693197</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>223.1176846276149</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
         <v>47.20655154895472</v>
@@ -7174,19 +7174,19 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
         <v>1775.969506973259</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V38" t="n">
-        <v>1957.24425759636</v>
+        <v>2170.989116807685</v>
       </c>
       <c r="W38" t="n">
-        <v>1957.24425759636</v>
+        <v>1766.133662218718</v>
       </c>
       <c r="X38" t="n">
-        <v>1957.24425759636</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="Y38" t="n">
-        <v>1957.24425759636</v>
+        <v>1346.991198798029</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810429</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>581.0856030486432</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C40" t="n">
-        <v>408.5238915318681</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D40" t="n">
-        <v>242.6458987333908</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="E40" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F40" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>359.5348022487599</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092376</v>
+        <v>901.6154856350189</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827552</v>
+        <v>1485.796561053334</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789086</v>
+        <v>2055.554276014868</v>
       </c>
       <c r="O40" t="n">
         <v>2173.32015736263</v>
@@ -7365,19 +7365,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1804.697559663388</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1517.742051533818</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W40" t="n">
-        <v>1245.71564712011</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1000.323892453522</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.9042217676304</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1893.561637177625</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C41" t="n">
-        <v>1455.419164361049</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D41" t="n">
-        <v>1019.509379535493</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E41" t="n">
-        <v>585.7346346937884</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F41" t="n">
-        <v>585.7346346937884</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>186.2319433732656</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435806</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662533</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662533</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662533</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X41" t="n">
-        <v>2319.861207662533</v>
+        <v>873.0088133543854</v>
       </c>
       <c r="Y41" t="n">
-        <v>2319.861207662533</v>
+        <v>873.0088133543854</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>555.4042596134699</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C43" t="n">
-        <v>382.8425480966948</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D43" t="n">
-        <v>216.9645552982175</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E43" t="n">
-        <v>47.20655154895472</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
         <v>47.20655154895472</v>
@@ -7572,22 +7572,22 @@
         <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092381</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>2057.402848179471</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1779.016216228214</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1492.060708098645</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1220.034303684936</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>974.6425490183487</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y43" t="n">
-        <v>747.222878332457</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1081.546859998019</v>
+        <v>1893.561637177625</v>
       </c>
       <c r="C44" t="n">
-        <v>1081.546859998019</v>
+        <v>1455.419164361049</v>
       </c>
       <c r="D44" t="n">
-        <v>1081.546859998019</v>
+        <v>1019.509379535493</v>
       </c>
       <c r="E44" t="n">
-        <v>1081.546859998019</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F44" t="n">
-        <v>653.6794304072271</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895472</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586986</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W44" t="n">
-        <v>1081.546859998019</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X44" t="n">
-        <v>1081.546859998019</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y44" t="n">
-        <v>1081.546859998019</v>
+        <v>2319.861207662533</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>858.9930882810429</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K45" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L45" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M45" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N45" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>859.4385509106165</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C46" t="n">
-        <v>686.8768393938415</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D46" t="n">
-        <v>520.9988465953642</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E46" t="n">
-        <v>520.9988465953642</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895472</v>
@@ -7806,16 +7806,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511378</v>
+        <v>116.635590151373</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>488.1941452900667</v>
       </c>
       <c r="L46" t="n">
-        <v>326.7831174369939</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M46" t="n">
-        <v>718.6204178572108</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N46" t="n">
         <v>1288.378132818745</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2316.728855443642</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.481631347048</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1796.094999395791</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1796.094999395791</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1524.068594982083</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1278.676840315495</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.257169629604</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>39.64570999510201</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="P3" t="n">
-        <v>13.31876740878118</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
@@ -8139,25 +8139,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L4" t="n">
-        <v>39.64570999510199</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>39.645709995102</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878118</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752733</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.425901061075052</v>
+        <v>37.69138331481531</v>
       </c>
       <c r="K8" t="n">
-        <v>35.88413639470578</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>33.81826915287208</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>33.69696416086256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>34.50077607608623</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>38.63311137860765</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>39.15679995900464</v>
+        <v>39.1567999590044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>20.75636409995265</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.75636409995661</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.89670663969451</v>
+        <v>39.89670663969434</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.96101578689289</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>29.29955505740694</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>38.31297111553334</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>38.38435272500487</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>38.60807313517782</v>
+        <v>25.93382512007958</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>38.99875687091927</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>39.71135425522903</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>323.2928365343466</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>69.27619576520624</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M19" t="n">
         <v>458.1582657371569</v>
@@ -9339,7 +9339,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>69.27619576520605</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9564,16 +9564,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>263.8716243249368</v>
+        <v>229.6216911390738</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9640,7 +9640,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>16.39178053361661</v>
+        <v>16.39178053361672</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.217953603098792</v>
+        <v>4.217953603099716</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>16.39178053361684</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>4.217953603099829</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>103.3550520324814</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>418.965250155396</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>207.940421495367</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>187.2544722033713</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>213.2711425132359</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>413.6345291375272</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.217953603099829</v>
+        <v>4.217953603099716</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>156.7304232042873</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>70.75030430845868</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042866</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>458.1582657371569</v>
@@ -10995,7 +10995,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>156.730423204287</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.62967161639915</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>263.8716243249369</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>186.6463767752002</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>216.4825855016771</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.91154299085281</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>218.036052101584</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>244.1056109436485</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>32.71238344421084</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,16 +23664,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>107.2106287047886</v>
+        <v>88.66565849005825</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>136.0641910310646</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>21.84228377625749</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.08141159276335</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>147.9219503606782</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>256.0862261434327</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>187.8711680638309</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>267.8799620385243</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>144.0807395194006</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>261.365475954373</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>85.06110941487646</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>39.84862751704509</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>397.5956921311357</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>154.9659830217824</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,7 +24745,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>342.9543919540871</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>46.41270130303493</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>100.389078324571</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>421.2982372258601</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>284.0195701489907</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>114.8692533779061</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>249.4367335470108</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25450,13 +25450,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>171.5457045318609</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>82.91154299085279</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -25566,10 +25566,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>108.3360729916745</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>129.389198035461</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>208.4983726092849</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>82.91154299085282</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>285.9536173888166</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>62.12385027915667</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811444</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>99.8195383267545</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>610928.1144997927</v>
+        <v>610928.1144997928</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>610928.1144997927</v>
+        <v>610928.1144997928</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>608898.8685444423</v>
+        <v>608898.8685444421</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>365506.615492088</v>
+        <v>365506.6154920878</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365506.6154920879</v>
+        <v>365506.6154920878</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>365506.6154920879</v>
+        <v>365506.6154920878</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>365506.6154920879</v>
+        <v>365506.6154920878</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>365506.6154920879</v>
+        <v>365506.6154920878</v>
       </c>
     </row>
   </sheetData>
@@ -26334,7 +26334,7 @@
         <v>196621.9641260216</v>
       </c>
       <c r="I2" t="n">
-        <v>236406.3227348448</v>
+        <v>236406.3227348447</v>
       </c>
       <c r="J2" t="n">
         <v>236406.3227348447</v>
@@ -26343,16 +26343,16 @@
         <v>236406.3227348447</v>
       </c>
       <c r="L2" t="n">
-        <v>236406.3227348448</v>
+        <v>236406.3227348447</v>
       </c>
       <c r="M2" t="n">
-        <v>196621.9641260217</v>
+        <v>196621.9641260216</v>
       </c>
       <c r="N2" t="n">
         <v>196621.9641260216</v>
       </c>
       <c r="O2" t="n">
-        <v>196621.9641260216</v>
+        <v>196621.9641260215</v>
       </c>
       <c r="P2" t="n">
         <v>196621.9641260216</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9095.279978855724</v>
+        <v>9095.279978856817</v>
       </c>
       <c r="E3" t="n">
-        <v>530267.1569598988</v>
+        <v>530267.1569598978</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42102.11971426838</v>
+        <v>42102.11971426842</v>
       </c>
       <c r="J3" t="n">
         <v>10809.82265736726</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>97299.51484534092</v>
+        <v>97299.51484534083</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>300452.3867499857</v>
       </c>
       <c r="C4" t="n">
-        <v>300452.3867499858</v>
+        <v>300452.3867499857</v>
       </c>
       <c r="D4" t="n">
-        <v>298283.329250941</v>
+        <v>298283.3292509407</v>
       </c>
       <c r="E4" t="n">
         <v>12054.84944074259</v>
@@ -26438,10 +26438,10 @@
         <v>12054.84944074259</v>
       </c>
       <c r="I4" t="n">
-        <v>33260.1845465983</v>
+        <v>33260.18454659831</v>
       </c>
       <c r="J4" t="n">
-        <v>33260.18454659832</v>
+        <v>33260.18454659831</v>
       </c>
       <c r="K4" t="n">
         <v>33260.18454659831</v>
@@ -26450,13 +26450,13 @@
         <v>33260.18454659831</v>
       </c>
       <c r="M4" t="n">
+        <v>12054.84944074259</v>
+      </c>
+      <c r="N4" t="n">
         <v>12054.8494407426</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>12054.84944074259</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12054.8494407426</v>
       </c>
       <c r="P4" t="n">
         <v>12054.84944074259</v>
@@ -26475,7 +26475,7 @@
         <v>36139.55218528966</v>
       </c>
       <c r="D5" t="n">
-        <v>36371.07234205853</v>
+        <v>36371.07234205856</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963781</v>
@@ -26502,7 +26502,7 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="N5" t="n">
         <v>46051.0812096378</v>
@@ -26527,43 +26527,43 @@
         <v>-1499.864003770155</v>
       </c>
       <c r="D6" t="n">
-        <v>-8657.606640349957</v>
+        <v>-8657.606640350808</v>
       </c>
       <c r="E6" t="n">
-        <v>-391751.1234842576</v>
+        <v>-392305.0039274786</v>
       </c>
       <c r="F6" t="n">
-        <v>138516.0334756412</v>
+        <v>137962.1530324192</v>
       </c>
       <c r="G6" t="n">
-        <v>138516.0334756412</v>
+        <v>137962.1530324192</v>
       </c>
       <c r="H6" t="n">
-        <v>138516.0334756412</v>
+        <v>137962.1530324192</v>
       </c>
       <c r="I6" t="n">
-        <v>105366.7367061763</v>
+        <v>104971.9936973896</v>
       </c>
       <c r="J6" t="n">
-        <v>136659.0337630773</v>
+        <v>136264.2907542907</v>
       </c>
       <c r="K6" t="n">
-        <v>147468.8564204446</v>
+        <v>147074.1134116579</v>
       </c>
       <c r="L6" t="n">
-        <v>147468.8564204447</v>
+        <v>147074.113411658</v>
       </c>
       <c r="M6" t="n">
-        <v>41216.51863030033</v>
+        <v>40662.63818707845</v>
       </c>
       <c r="N6" t="n">
-        <v>138516.0334756412</v>
+        <v>137962.1530324192</v>
       </c>
       <c r="O6" t="n">
-        <v>138516.0334756412</v>
+        <v>137962.1530324192</v>
       </c>
       <c r="P6" t="n">
-        <v>138516.0334756412</v>
+        <v>137962.1530324192</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10.62019067747109</v>
+        <v>10.62019067747236</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932211</v>
@@ -26770,7 +26770,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
       <c r="N3" t="n">
         <v>466.701928093221</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -26822,7 +26822,7 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>590.081894361934</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10.62019067747109</v>
+        <v>10.62019067747236</v>
       </c>
       <c r="E3" t="n">
-        <v>456.08173741575</v>
+        <v>456.0817374157488</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>158.3256670750651</v>
+        <v>158.3256670750652</v>
       </c>
       <c r="J4" t="n">
         <v>41.3150030475274</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>390.4412242393418</v>
+        <v>390.4412242393414</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27466,13 +27466,13 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>56.78895584205376</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>41.23499695247266</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>43.21623578895062</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -27511,19 +27511,19 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U3" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W3" t="n">
-        <v>183.4695267241379</v>
+        <v>147.0792720398758</v>
       </c>
       <c r="X3" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -27545,19 +27545,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>148.7487506218504</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>46.45834668554408</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>202.1056489098019</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27599,10 +27599,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>254.1195287669911</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27697,22 +27697,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517241</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878848</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>46.15974531573794</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
-        <v>43.21623578895062</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003292614422313989</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>129.52109135408</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27788,13 +27788,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>102.1128978822672</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I7" t="n">
-        <v>46.45834668554408</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>227.7512255173414</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27870,7 +27870,7 @@
         <v>397.3411588290895</v>
       </c>
       <c r="H8" t="n">
-        <v>285.8016106884997</v>
+        <v>285.8016106884996</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>81.84246022347725</v>
+        <v>81.84246022347713</v>
       </c>
       <c r="T8" t="n">
         <v>217.6796608468852</v>
@@ -27934,22 +27934,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>69.00164186746207</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>52.82438291738494</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878848</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247266</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.50839540747359</v>
       </c>
       <c r="H9" t="n">
-        <v>41.0976762291969</v>
+        <v>41.09767622919687</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.39657650139235</v>
+        <v>62.3965765013923</v>
       </c>
       <c r="T9" t="n">
-        <v>128.7847821833403</v>
+        <v>92.39452749907818</v>
       </c>
       <c r="U9" t="n">
-        <v>174.57167867286</v>
+        <v>133.2566756253327</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>173.8527149769091</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
         <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
-        <v>122.6012080133865</v>
+        <v>163.9162110609138</v>
       </c>
       <c r="H10" t="n">
-        <v>138.3328813127167</v>
+        <v>138.3328813127166</v>
       </c>
       <c r="I10" t="n">
-        <v>71.1497044607888</v>
+        <v>87.19742201567668</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.3152024653323</v>
+        <v>157.3152024653322</v>
       </c>
       <c r="T10" t="n">
-        <v>202.0238212111394</v>
+        <v>243.3388242586668</v>
       </c>
       <c r="U10" t="n">
         <v>275.6476261305066</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04269423387928072</v>
+        <v>0.04269423387928585</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4372423227161839</v>
+        <v>0.4372423227162363</v>
       </c>
       <c r="I8" t="n">
-        <v>1.645969451630972</v>
+        <v>1.645969451631169</v>
       </c>
       <c r="J8" t="n">
-        <v>3.623619732711606</v>
+        <v>3.623619732712041</v>
       </c>
       <c r="K8" t="n">
-        <v>5.430866652821559</v>
+        <v>5.430866652822212</v>
       </c>
       <c r="L8" t="n">
-        <v>6.737470312904598</v>
+        <v>6.737470312905407</v>
       </c>
       <c r="M8" t="n">
-        <v>7.496733894655257</v>
+        <v>7.496733894656157</v>
       </c>
       <c r="N8" t="n">
-        <v>7.618038886664764</v>
+        <v>7.618038886665679</v>
       </c>
       <c r="O8" t="n">
-        <v>7.193498098527666</v>
+        <v>7.193498098528529</v>
       </c>
       <c r="P8" t="n">
-        <v>6.139484199632922</v>
+        <v>6.139484199633659</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.610496948831179</v>
+        <v>4.610496948831734</v>
       </c>
       <c r="R8" t="n">
-        <v>2.68189166891937</v>
+        <v>2.681891668919692</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9728948545241105</v>
+        <v>0.9728948545242273</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1868940088065515</v>
+        <v>0.1868940088065739</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003415538710342457</v>
+        <v>0.003415538710342868</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02284342900437178</v>
+        <v>0.02284342900437452</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2206194327527485</v>
+        <v>0.220619432752775</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7864952530013968</v>
+        <v>0.7864952530014911</v>
       </c>
       <c r="J9" t="n">
-        <v>2.158203088522686</v>
+        <v>2.158203088522946</v>
       </c>
       <c r="K9" t="n">
-        <v>3.688712831815595</v>
+        <v>3.688712831816038</v>
       </c>
       <c r="L9" t="n">
-        <v>4.959929617813267</v>
+        <v>4.959929617813862</v>
       </c>
       <c r="M9" t="n">
-        <v>5.788003919221742</v>
+        <v>5.788003919222438</v>
       </c>
       <c r="N9" t="n">
-        <v>5.941195160220359</v>
+        <v>5.941195160221073</v>
       </c>
       <c r="O9" t="n">
-        <v>5.435032864912963</v>
+        <v>5.435032864913616</v>
       </c>
       <c r="P9" t="n">
-        <v>4.362093035054116</v>
+        <v>4.36209303505464</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.91594367431244</v>
+        <v>2.91594367431279</v>
       </c>
       <c r="R9" t="n">
-        <v>1.418296407832838</v>
+        <v>1.418296407833008</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4243066747083965</v>
+        <v>0.4243066747084475</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09207504936411251</v>
+        <v>0.09207504936412357</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001502857171340249</v>
+        <v>0.001502857171340429</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01915116351675114</v>
+        <v>0.01915116351675344</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1702712538125694</v>
+        <v>0.1702712538125898</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5759277173946618</v>
+        <v>0.5759277173947309</v>
       </c>
       <c r="J10" t="n">
-        <v>1.353987260634306</v>
+        <v>1.353987260634468</v>
       </c>
       <c r="K10" t="n">
-        <v>2.22501699767345</v>
+        <v>2.225016997673718</v>
       </c>
       <c r="L10" t="n">
-        <v>2.847255710481347</v>
+        <v>2.847255710481689</v>
       </c>
       <c r="M10" t="n">
-        <v>3.002031931993999</v>
+        <v>3.00203193199436</v>
       </c>
       <c r="N10" t="n">
-        <v>2.930650322522474</v>
+        <v>2.930650322522826</v>
       </c>
       <c r="O10" t="n">
-        <v>2.706929912349517</v>
+        <v>2.706929912349842</v>
       </c>
       <c r="P10" t="n">
-        <v>2.316246176607792</v>
+        <v>2.31624617660807</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.603648792298134</v>
+        <v>1.603648792298327</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8611059523077375</v>
+        <v>0.8611059523078408</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3337525496510175</v>
+        <v>0.3337525496510576</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08182769866248213</v>
+        <v>0.08182769866249195</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001044608919095518</v>
+        <v>0.001044608919095643</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
@@ -32256,19 +32256,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32347,7 +32347,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116989</v>
@@ -32405,16 +32405,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916772</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562362</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
@@ -33657,7 +33657,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062837</v>
@@ -33675,7 +33675,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q35" t="n">
         <v>202.607267687947</v>
@@ -33684,10 +33684,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U35" t="n">
         <v>0.150095092452091</v>
@@ -33730,19 +33730,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108054</v>
@@ -33754,10 +33754,10 @@
         <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R36" t="n">
         <v>62.32672164233622</v>
@@ -33766,7 +33766,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356904</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
@@ -33836,19 +33836,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33973,7 +33973,7 @@
         <v>34.56235976916778</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562393</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K39" t="n">
         <v>162.099668741586</v>
@@ -34210,7 +34210,7 @@
         <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562335</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K42" t="n">
         <v>162.099668741586</v>
@@ -34231,7 +34231,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -34447,7 +34447,7 @@
         <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562393</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K45" t="n">
         <v>162.099668741586</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>39.64570999510201</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="P3" t="n">
-        <v>13.31876740878118</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L4" t="n">
-        <v>39.64570999510199</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>39.645709995102</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -35014,13 +35014,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878118</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752733</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.233347972499574</v>
+        <v>1.233347972499772</v>
       </c>
       <c r="J8" t="n">
-        <v>11.04952079378666</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>41.31500304752733</v>
+        <v>5.43086665282221</v>
       </c>
       <c r="L8" t="n">
-        <v>6.737470312904598</v>
+        <v>6.737470312905408</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752733</v>
+        <v>7.49673389465616</v>
       </c>
       <c r="N8" t="n">
+        <v>7.618038886665673</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7.193498098528522</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.139484199633657</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>39.11127302491796</v>
+      </c>
+      <c r="R8" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O8" t="n">
-        <v>7.19349809852767</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6.139484199632932</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4.610496948831184</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.681891668919377</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27.11343783932221</v>
+        <v>27.1134378393223</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="K9" t="n">
-        <v>3.688712831815593</v>
+        <v>24.44507693176868</v>
       </c>
       <c r="L9" t="n">
-        <v>4.959929617813273</v>
+        <v>4.959929617813856</v>
       </c>
       <c r="M9" t="n">
-        <v>5.788003919221751</v>
+        <v>5.788003919222433</v>
       </c>
       <c r="N9" t="n">
-        <v>5.94119516022036</v>
+        <v>5.941195160221071</v>
       </c>
       <c r="O9" t="n">
-        <v>26.19139696486958</v>
+        <v>5.435032864913609</v>
       </c>
       <c r="P9" t="n">
-        <v>4.362093035054116</v>
+        <v>4.362093035054642</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.915943674312445</v>
+        <v>2.915943674312786</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.353987260634305</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>2.225016997673451</v>
+        <v>2.22501699767372</v>
       </c>
       <c r="L10" t="n">
-        <v>32.1468107678883</v>
+        <v>2.84725571048169</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752733</v>
+        <v>3.00203193199436</v>
       </c>
       <c r="N10" t="n">
+        <v>2.93065032252283</v>
+      </c>
+      <c r="O10" t="n">
+        <v>28.64075503242942</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.316246176607791</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.603648792298145</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35497,7 +35497,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
@@ -35570,25 +35570,25 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712365</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>425.0797619663501</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>167.0540751263761</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
@@ -35828,7 +35828,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35962,22 +35962,22 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N19" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P19" t="n">
-        <v>171.0631211972095</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36214,10 +36214,10 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36281,19 +36281,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>388.9936461616014</v>
+        <v>354.7437129757384</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
         <v>598.8903663599629</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916772</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>101.9958329642687</v>
+        <v>101.9958329642696</v>
       </c>
       <c r="L25" t="n">
         <v>547.556245844706</v>
@@ -36533,13 +36533,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>598.8903663599626</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
@@ -36609,13 +36609,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>286.1900544520704</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>101.9958329642697</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893358</v>
+        <v>235.2786806572585</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
         <v>70.47199114207615</v>
@@ -36831,7 +36831,7 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062837</v>
@@ -36840,19 +36840,19 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>542.7134537948391</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>389.8617398913184</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562362</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
@@ -36925,7 +36925,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
@@ -37077,22 +37077,22 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>542.7134537948391</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>748.4075614369992</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>101.9958329642697</v>
+        <v>101.9958329642696</v>
       </c>
       <c r="L34" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q34" t="n">
         <v>70.47199114207615</v>
@@ -37311,19 +37311,19 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R36" t="n">
         <v>62.32672164233622</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>281.8524450409519</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207615</v>
+        <v>81.10166275847541</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562393</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K39" t="n">
         <v>162.099668741586</v>
@@ -37630,7 +37630,7 @@
         <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
@@ -37645,7 +37645,7 @@
         <v>128.1404992002367</v>
       </c>
       <c r="R39" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>168.5281836696286</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409511</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
         <v>590.081894361934</v>
@@ -37715,7 +37715,7 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062837</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
@@ -37879,10 +37879,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R42" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>281.8524450409516</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M43" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207615</v>
+        <v>81.10166275847541</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027013</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562393</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K45" t="n">
         <v>162.099668741586</v>
@@ -38104,7 +38104,7 @@
         <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
@@ -38119,7 +38119,7 @@
         <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>70.13034202264471</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>395.795252949714</v>
+        <v>131.9236286247774</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
